--- a/useful_python_functions.xlsx
+++ b/useful_python_functions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>Funktion</t>
   </si>
@@ -151,16 +151,84 @@
   </si>
   <si>
     <t>findet Element im Datensatz, für den die Kondition stimmt und ersetzt mit neuem Wert</t>
+  </si>
+  <si>
+    <t>dataframe.head(Zahl)</t>
+  </si>
+  <si>
+    <t>gibt die ersten Zahl Zeilen des dataframes aus, Default: 5</t>
+  </si>
+  <si>
+    <t>dataframe.factorize()</t>
+  </si>
+  <si>
+    <t>wandelt Textkategorien in Zahlen um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zahl, TK = dataframe.factorize()
+</t>
+  </si>
+  <si>
+    <t>Im Beispiel wird Text A-D aus dataframe(1 dimensionales array) in 0-4 umgewandelt und auch als indizierte Textkategorien (TK) wieder mit ausgegeben</t>
+  </si>
+  <si>
+    <t>formt array in ein neues Array mit x Zeilen und y Spalten um; wenn y nicht angegeben wird, ist x die Länge des eindimensionalen Arrays</t>
+  </si>
+  <si>
+    <t>reshape(array,(x,y))
+array.reshape(x,y)</t>
+  </si>
+  <si>
+    <t>np.reshape(array, (3,-1))
+array.reshape(3,2)</t>
+  </si>
+  <si>
+    <t>für x und y können -1 als Wert angegeben werden, dann wird jeweils dieser Wert automatisch aus dem anderen Wert ermittelt. Im Beispiel hat das erste Array 3 Zeilen und Spalten je nach Anzahl der Datenpunkte (bei 6 Datenpunkten 2 Spalten, bei 9 3 usw.)</t>
+  </si>
+  <si>
+    <t>sklearn.preprocessing</t>
+  </si>
+  <si>
+    <t>OneHotEncoder()</t>
+  </si>
+  <si>
+    <t>wandelt als Integer dargestellte Kategorien in One-Hot-Vektoren um; Ergebnis: dünn besetzte Matrix (sparse matrix)</t>
+  </si>
+  <si>
+    <t>doku siehe scikit-learn</t>
+  </si>
+  <si>
+    <t>CategoricalEncoder()</t>
+  </si>
+  <si>
+    <t>kombiniert pandas.factorize() und OneHotEncoder, wandelt also Textkategorien in sparse matrices um</t>
+  </si>
+  <si>
+    <t>doku siehe scikit-learn: CategoricalEncoder()</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>gibt pandas dataframe als numpy array zurück</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,10 +251,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -194,8 +263,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -231,8 +304,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B2:F15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B2:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B2:F20" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B2:F20"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Bibliothek, Klasse" dataDxfId="4"/>
     <tableColumn id="2" name="Funktion" dataDxfId="3"/>
@@ -531,19 +604,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="80.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="82.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="37.140625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -740,12 +813,101 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
+    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E19" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
